--- a/Traditional CV/Unprocessed + Transform/No Transform/T_EveryNetwork_Unprocessed_7Features_NoTransform.xlsx
+++ b/Traditional CV/Unprocessed + Transform/No Transform/T_EveryNetwork_Unprocessed_7Features_NoTransform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicalvarez/Documents/projectcode/cs791/Traditional CV/Unprocessed + Transform/No Transform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0E138818-7538-1347-BA74-C0CFF96AF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{637D24B6-EA57-C64D-B697-99D3F9B746CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="940" yWindow="660" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="EveryFileIndividual_Untuned_Mod" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,19 @@
     <t>b100d100.csv</t>
   </si>
   <si>
-    <t>RandomForestClassifier()</t>
+    <t>RandomForestClassifier</t>
   </si>
   <si>
-    <t>GradientBoostingClassifier()</t>
+    <t>XGBClassifier</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier()</t>
+    <t>DecisionTreeClassifier</t>
   </si>
   <si>
-    <t>MLPClassifier()</t>
+    <t>MLPClassifier</t>
   </si>
   <si>
-    <t>LinearSVC()</t>
+    <t>LinearSVC</t>
   </si>
   <si>
     <t>b5000d10.csv</t>
@@ -92,9 +92,6 @@
     <t>dt</t>
   </si>
   <si>
-    <t>gb</t>
-  </si>
-  <si>
     <t>svc</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>rf</t>
+  </si>
+  <si>
+    <t>xgb</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,21 +972,21 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.95222222222222197</v>
+        <v>0.95259259259259199</v>
       </c>
       <c r="D2">
-        <v>9.8965846043610299E-3</v>
+        <v>1.3588100983588199E-2</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.97230452674897094</v>
+        <v>0.97209876543209817</v>
       </c>
       <c r="H2">
         <f>AVERAGE(D2:D46)</f>
-        <v>9.8196936374265759E-3</v>
+        <v>1.0683410569667307E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -997,21 +997,21 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.98851851851851802</v>
+        <v>0.99222222222222201</v>
       </c>
       <c r="D3">
-        <v>7.97802193649556E-3</v>
+        <v>4.5961754244410501E-3</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3">
         <f>AVERAGE(C47:C91)</f>
-        <v>0.9809629629629627</v>
+        <v>0.41920987654320946</v>
       </c>
       <c r="H3">
         <f>AVERAGE(D47:D91)</f>
-        <v>9.0624530221294162E-3</v>
+        <v>7.4243931446638725E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1022,21 +1022,21 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.96962962962962895</v>
+        <v>0.97296296296296203</v>
       </c>
       <c r="D4">
-        <v>5.3158148497804902E-3</v>
+        <v>6.8892871250882601E-3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4">
         <f>AVERAGE(C92:C136)</f>
-        <v>0.42127572016460851</v>
+        <v>0.36251851851851813</v>
       </c>
       <c r="H4">
         <f>AVERAGE(D92:D136)</f>
-        <v>7.7253470084085701E-2</v>
+        <v>6.3884631489445592E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,21 +1047,21 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.94962962962962905</v>
+        <v>0.94703703703703701</v>
       </c>
       <c r="D5">
-        <v>1.1074012139056301E-2</v>
+        <v>1.6915832958028499E-2</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5">
-        <f>AVERAGE(C137:C181)</f>
-        <v>0.35512757201646045</v>
+        <f>AVERAGE(C141:C185)</f>
+        <v>0.9799012345679009</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(D137:D181)</f>
-        <v>6.0608748043510255E-2</v>
+        <f>AVERAGE(D141:D185)</f>
+        <v>9.1390897922425957E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,21 +1072,21 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.982222222222222</v>
+        <v>0.98074074074074002</v>
       </c>
       <c r="D6">
-        <v>8.0805274923227699E-3</v>
+        <v>9.55813918560291E-3</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6">
         <f>AVERAGE(C186:C230)</f>
-        <v>0.98020576131687187</v>
+        <v>0.980576131687242</v>
       </c>
       <c r="H6">
         <f>AVERAGE(D186:D230)</f>
-        <v>8.6426258858430267E-3</v>
+        <v>8.3846676631996759E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.994074074074074</v>
+        <v>0.99259259259259203</v>
       </c>
       <c r="D7">
-        <v>3.5908739684565598E-3</v>
+        <v>2.8688765527462301E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>0.99444444444444402</v>
       </c>
       <c r="D8">
-        <v>4.9690399499995397E-3</v>
+        <v>6.1974816780302096E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.97407407407407398</v>
+        <v>0.97703703703703704</v>
       </c>
       <c r="D9">
-        <v>1.09869607216231E-2</v>
+        <v>6.6872111426917501E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.94518518518518502</v>
+        <v>0.94333333333333302</v>
       </c>
       <c r="D10">
-        <v>2.7432421017986899E-2</v>
+        <v>2.63614217026285E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1153,10 +1153,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.95333333333333303</v>
+        <v>0.95444444444444398</v>
       </c>
       <c r="D11">
-        <v>8.14814814814817E-3</v>
+        <v>1.07726219053696E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1167,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>0.99</v>
+        <v>0.99148148148148096</v>
       </c>
       <c r="D12">
-        <v>7.1817479369130901E-3</v>
+        <v>4.7718884173056104E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1181,10 +1181,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0.97111111111111104</v>
+        <v>0.97296296296296203</v>
       </c>
       <c r="D13">
-        <v>6.0405579371482004E-3</v>
+        <v>5.9259259259259204E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1195,10 +1195,10 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>0.94925925925925903</v>
+        <v>0.94629629629629597</v>
       </c>
       <c r="D14">
-        <v>1.1747223353447101E-2</v>
+        <v>1.8555518592407901E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,10 +1209,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>0.98296296296296204</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D15">
-        <v>5.6655772373252903E-3</v>
+        <v>9.2221478503620204E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1223,10 +1223,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>0.99481481481481404</v>
+        <v>0.99333333333333296</v>
       </c>
       <c r="D16">
-        <v>2.7216552697590999E-3</v>
+        <v>3.4346735168502502E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.99370370370370298</v>
+        <v>0.994074074074074</v>
       </c>
       <c r="D17">
-        <v>5.3158148497805102E-3</v>
+        <v>5.9027323890775097E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>0.97481481481481402</v>
       </c>
       <c r="D18">
-        <v>1.03835894584268E-2</v>
+        <v>9.1923508488821193E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>0.94370370370370305</v>
+        <v>0.94</v>
       </c>
       <c r="D19">
-        <v>2.5622563787300701E-2</v>
+        <v>2.89647626607661E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1279,10 +1279,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>0.95185185185185195</v>
+        <v>0.95592592592592596</v>
       </c>
       <c r="D20">
-        <v>1.02104064830297E-2</v>
+        <v>1.0436298373040999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1293,10 +1293,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.98851851851851802</v>
+        <v>0.99222222222222201</v>
       </c>
       <c r="D21">
-        <v>7.5359222034725101E-3</v>
+        <v>4.2873470010334203E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1307,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.97259259259259201</v>
+        <v>0.97518518518518504</v>
       </c>
       <c r="D22">
-        <v>5.6655772373253397E-3</v>
+        <v>5.9259259259259404E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1321,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0.94666666666666599</v>
+        <v>0.94333333333333302</v>
       </c>
       <c r="D23">
-        <v>9.1774160691584297E-3</v>
+        <v>1.85036977730322E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1335,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>0.98481481481481403</v>
+        <v>0.97999999999999898</v>
       </c>
       <c r="D24">
-        <v>5.1586623248830099E-3</v>
+        <v>9.5437768346112398E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1349,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>0.99333333333333296</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D25">
-        <v>3.4346735168502502E-3</v>
+        <v>4.6259244432580501E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.994074074074074</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D26">
-        <v>4.5961754244410701E-3</v>
+        <v>6.1974816780302096E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1377,10 +1377,10 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0.97370370370370296</v>
+        <v>0.97518518518518504</v>
       </c>
       <c r="D27">
-        <v>1.13190420666193E-2</v>
+        <v>1.1148086624661E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1391,10 +1391,10 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>0.94111111111111101</v>
+        <v>0.93962962962962904</v>
       </c>
       <c r="D28">
-        <v>3.36487137888411E-2</v>
+        <v>3.0889865869619299E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1405,10 +1405,10 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>0.95333333333333303</v>
+        <v>0.95148148148148104</v>
       </c>
       <c r="D29">
-        <v>7.4443523119414098E-3</v>
+        <v>1.1851851851851799E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>0.98962962962962897</v>
       </c>
       <c r="D30">
-        <v>7.1817479369130901E-3</v>
+        <v>6.2635313056621199E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0.97148148148148095</v>
+        <v>0.974444444444444</v>
       </c>
       <c r="D31">
-        <v>7.1817479369130997E-3</v>
+        <v>6.3505289627712102E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>0.94629629629629597</v>
+        <v>0.94</v>
       </c>
       <c r="D32">
-        <v>1.25598703391208E-2</v>
+        <v>1.76305633117213E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1461,10 +1461,10 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>0.98259259259259202</v>
+        <v>0.97999999999999898</v>
       </c>
       <c r="D33">
-        <v>6.8892871250882497E-3</v>
+        <v>9.8965846043610403E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>0.99296296296296205</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D34">
-        <v>2.9629629629629802E-3</v>
+        <v>3.8131963485136802E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,10 +1489,10 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>0.99444444444444402</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D35">
-        <v>4.9690399499995397E-3</v>
+        <v>5.5678875475455303E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>0.97592592592592597</v>
+        <v>0.97518518518518504</v>
       </c>
       <c r="D36">
-        <v>9.1474733594285092E-3</v>
+        <v>7.4627561776332797E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1517,10 +1517,10 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>0.94333333333333302</v>
+        <v>0.94629629629629597</v>
       </c>
       <c r="D37">
-        <v>2.8026050981322301E-2</v>
+        <v>2.43150334254368E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.95296296296296201</v>
+        <v>0.95444444444444398</v>
       </c>
       <c r="D38">
-        <v>9.9104356742664105E-3</v>
+        <v>1.02506314837763E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1545,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>0.98851851851851802</v>
+        <v>0.99</v>
       </c>
       <c r="D39">
-        <v>7.8915836120972294E-3</v>
+        <v>7.82174521553438E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
         <v>0.97222222222222199</v>
       </c>
       <c r="D40">
-        <v>6.0858061945018504E-3</v>
+        <v>7.8567420131838601E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1573,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.94851851851851798</v>
+        <v>0.94629629629629597</v>
       </c>
       <c r="D41">
-        <v>1.3578002059128401E-2</v>
+        <v>1.6646077817958599E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,10 +1587,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>0.98333333333333295</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D42">
-        <v>6.1974816780301801E-3</v>
+        <v>8.6859551107841201E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1601,10 +1601,10 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0.99259259259259203</v>
+        <v>0.99333333333333296</v>
       </c>
       <c r="D43">
-        <v>3.0987408390150701E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1615,10 +1615,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>0.99481481481481404</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D44">
-        <v>4.8855207252862702E-3</v>
+        <v>6.1974816780302096E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1629,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>0.97555555555555495</v>
+        <v>0.97481481481481402</v>
       </c>
       <c r="D45">
-        <v>1.17355403835221E-2</v>
+        <v>8.3312754660755505E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,10 +1643,10 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>0.944814814814814</v>
+        <v>0.94148148148148103</v>
       </c>
       <c r="D46">
-        <v>2.92428458417065E-2</v>
+        <v>2.6413406414333901E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,13 +1654,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.96629629629629599</v>
+        <v>0.41888888888888798</v>
       </c>
       <c r="D47">
-        <v>1.0631629699560901E-2</v>
+        <v>6.0828752857602197E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>0.99518518518518495</v>
+        <v>0.43444444444444402</v>
       </c>
       <c r="D48">
-        <v>3.4346735168502302E-3</v>
+        <v>6.7103507050199795E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,13 +1682,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.98074074074074002</v>
+        <v>0.44518518518518502</v>
       </c>
       <c r="D49">
-        <v>9.7005932249694601E-3</v>
+        <v>8.6872184305654798E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1696,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.96444444444444399</v>
+        <v>0.32222222222222202</v>
       </c>
       <c r="D50">
-        <v>1.00342349512178E-2</v>
+        <v>3.6194111640170397E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>0.98518518518518505</v>
+        <v>0.374074074074074</v>
       </c>
       <c r="D51">
-        <v>1.0540925533894499E-2</v>
+        <v>9.0023621347670196E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,13 +1724,13 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>0.99703703703703705</v>
+        <v>0.42851851851851802</v>
       </c>
       <c r="D52">
-        <v>1.88852574577508E-3</v>
+        <v>5.7265056483876003E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,13 +1738,13 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>0.99629629629629601</v>
+        <v>0.48</v>
       </c>
       <c r="D53">
-        <v>6.5210432820959402E-3</v>
+        <v>0.104804998886003</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1752,13 +1752,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>0.98296296296296204</v>
+        <v>0.462592592592592</v>
       </c>
       <c r="D54">
-        <v>6.8693470337005203E-3</v>
+        <v>5.1097690132723798E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1766,13 +1766,13 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>0.96037037037036999</v>
+        <v>0.332592592592592</v>
       </c>
       <c r="D55">
-        <v>2.1263259399121898E-2</v>
+        <v>5.7408602138105599E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>0.96629629629629599</v>
+        <v>0.43481481481481399</v>
       </c>
       <c r="D56">
-        <v>1.0631629699560901E-2</v>
+        <v>4.7233477235347703E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,13 +1794,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>0.99518518518518495</v>
+        <v>0.43555555555555497</v>
       </c>
       <c r="D57">
-        <v>3.4346735168502302E-3</v>
+        <v>7.6644298042950101E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1808,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>0.98074074074074002</v>
+        <v>0.41185185185185103</v>
       </c>
       <c r="D58">
-        <v>9.7005932249694601E-3</v>
+        <v>6.5468659713361493E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,13 +1822,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>0.96333333333333304</v>
+        <v>0.46</v>
       </c>
       <c r="D59">
-        <v>1.1909581622824799E-2</v>
+        <v>8.9707648933030806E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,13 +1836,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>0.98518518518518505</v>
+        <v>0.38296296296296201</v>
       </c>
       <c r="D60">
-        <v>1.0540925533894499E-2</v>
+        <v>1.60759514179338E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1850,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>0.99703703703703705</v>
+        <v>0.47666666666666602</v>
       </c>
       <c r="D61">
-        <v>1.88852574577508E-3</v>
+        <v>6.6249725003958607E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,13 +1864,13 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>0.99629629629629601</v>
+        <v>0.38703703703703701</v>
       </c>
       <c r="D62">
-        <v>6.5210432820959402E-3</v>
+        <v>8.8564221891105396E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,13 +1878,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>0.98296296296296204</v>
+        <v>0.40629629629629599</v>
       </c>
       <c r="D63">
-        <v>6.8693470337005203E-3</v>
+        <v>6.8238667740763301E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,13 +1892,13 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>0.96037037037036999</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D64">
-        <v>2.1263259399121898E-2</v>
+        <v>4.9717997613480898E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>0.96629629629629599</v>
+        <v>0.49037037037037001</v>
       </c>
       <c r="D65">
-        <v>1.0631629699560901E-2</v>
+        <v>9.0641669272497394E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,13 +1920,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>0.99518518518518495</v>
+        <v>0.45481481481481401</v>
       </c>
       <c r="D66">
-        <v>3.4346735168502302E-3</v>
+        <v>4.4791852090725302E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,13 +1934,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>0.98074074074074002</v>
+        <v>0.36407407407407399</v>
       </c>
       <c r="D67">
-        <v>9.7005932249694601E-3</v>
+        <v>8.9852798382849902E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1948,13 +1948,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.96481481481481401</v>
+        <v>0.43037037037037001</v>
       </c>
       <c r="D68">
-        <v>1.0006856360078699E-2</v>
+        <v>6.4455086392507202E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1962,13 +1962,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>0.98518518518518505</v>
+        <v>0.34592592592592503</v>
       </c>
       <c r="D69">
-        <v>1.0540925533894499E-2</v>
+        <v>5.36640977837744E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,13 +1976,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>0.99703703703703705</v>
+        <v>0.50407407407407401</v>
       </c>
       <c r="D70">
-        <v>1.88852574577508E-3</v>
+        <v>0.10205972054109901</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,13 +1990,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.99629629629629601</v>
+        <v>0.54666666666666597</v>
       </c>
       <c r="D71">
-        <v>6.5210432820959402E-3</v>
+        <v>0.14279879270814</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,13 +2004,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>0.98296296296296204</v>
+        <v>0.42</v>
       </c>
       <c r="D72">
-        <v>6.8693470337005203E-3</v>
+        <v>7.1149680898137002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,13 +2018,13 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.96074074074074001</v>
+        <v>0.37629629629629602</v>
       </c>
       <c r="D73">
-        <v>2.0734125929301302E-2</v>
+        <v>7.8666875915185105E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,13 +2032,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.96703703703703703</v>
+        <v>0.40925925925925899</v>
       </c>
       <c r="D74">
-        <v>1.1258284558200399E-2</v>
+        <v>0.106432355817596</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>0.99518518518518495</v>
+        <v>0.46629629629629599</v>
       </c>
       <c r="D75">
-        <v>3.4346735168502302E-3</v>
+        <v>9.5634477887256597E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,13 +2060,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.98074074074074002</v>
+        <v>0.49962962962962898</v>
       </c>
       <c r="D76">
-        <v>9.7005932249694601E-3</v>
+        <v>6.2266298321977699E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,13 +2074,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>0.96333333333333304</v>
+        <v>0.33592592592592502</v>
       </c>
       <c r="D77">
-        <v>1.1909581622824799E-2</v>
+        <v>6.1959321138909403E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2088,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>0.98518518518518505</v>
+        <v>0.368148148148148</v>
       </c>
       <c r="D78">
-        <v>1.0540925533894499E-2</v>
+        <v>3.5474444519847902E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,13 +2102,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>0.99703703703703705</v>
+        <v>0.47703703703703698</v>
       </c>
       <c r="D79">
-        <v>1.88852574577508E-3</v>
+        <v>0.11961644234160899</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,13 +2116,13 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>0.99629629629629601</v>
+        <v>0.49962962962962898</v>
       </c>
       <c r="D80">
-        <v>6.5210432820959402E-3</v>
+        <v>7.3258472826546905E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2130,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>0.98296296296296204</v>
+        <v>0.44370370370370299</v>
       </c>
       <c r="D81">
-        <v>6.8693470337005203E-3</v>
+        <v>4.1252675849527902E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,13 +2144,13 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>0.96074074074074001</v>
+        <v>0.31222222222222201</v>
       </c>
       <c r="D82">
-        <v>2.0734125929301302E-2</v>
+        <v>7.9172676834888198E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2158,13 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>0.96703703703703703</v>
+        <v>0.41555555555555501</v>
       </c>
       <c r="D83">
-        <v>1.1258284558200399E-2</v>
+        <v>9.6974817485455694E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,13 +2172,13 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>0.99518518518518495</v>
+        <v>0.47518518518518499</v>
       </c>
       <c r="D84">
-        <v>3.4346735168502302E-3</v>
+        <v>4.6149396570712299E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,13 +2186,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>0.98074074074074002</v>
+        <v>0.42037037037037001</v>
       </c>
       <c r="D85">
-        <v>9.7005932249694601E-3</v>
+        <v>0.112917416440193</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,13 +2200,13 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>0.96444444444444399</v>
+        <v>0.35074074074074002</v>
       </c>
       <c r="D86">
-        <v>1.00342349512178E-2</v>
+        <v>0.12850090604047701</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2214,13 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>0.98518518518518505</v>
+        <v>0.38814814814814802</v>
       </c>
       <c r="D87">
-        <v>1.0540925533894499E-2</v>
+        <v>3.8589677859647703E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2228,13 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C88">
-        <v>0.99703703703703705</v>
+        <v>0.44111111111111101</v>
       </c>
       <c r="D88">
-        <v>1.88852574577508E-3</v>
+        <v>0.105405351220152</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,13 +2242,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0.99629629629629601</v>
+        <v>0.416296296296296</v>
       </c>
       <c r="D89">
-        <v>6.5210432820959402E-3</v>
+        <v>7.8413626653746404E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2256,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>0.98296296296296204</v>
+        <v>0.45148148148148098</v>
       </c>
       <c r="D90">
-        <v>6.8693470337005203E-3</v>
+        <v>7.4142560932056997E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,13 +2270,13 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>0.96074074074074001</v>
+        <v>0.33407407407407402</v>
       </c>
       <c r="D91">
-        <v>2.0734125929301302E-2</v>
+        <v>6.7236249939288603E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2284,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>0.37148148148148102</v>
+        <v>0.31481481481481399</v>
       </c>
       <c r="D92">
-        <v>8.9447319944576803E-2</v>
+        <v>0.16236844416267501</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>0.41851851851851801</v>
+        <v>0.39333333333333298</v>
       </c>
       <c r="D93">
-        <v>7.3591017523080199E-2</v>
+        <v>6.9739865457421099E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2312,13 +2312,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.41962962962962902</v>
+        <v>0.32925925925925897</v>
       </c>
       <c r="D94">
-        <v>9.1404225888566296E-2</v>
+        <v>5.0449284588591298E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,13 +2326,13 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>0.41111111111111098</v>
+        <v>0.34370370370370301</v>
       </c>
       <c r="D95">
-        <v>8.5265662468306205E-2</v>
+        <v>3.5709543090944998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,13 +2340,13 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.38111111111111101</v>
+        <v>0.37074074074073998</v>
       </c>
       <c r="D96">
-        <v>7.5471994460685796E-2</v>
+        <v>6.0034283758011502E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,13 +2354,13 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.38740740740740698</v>
+        <v>0.35555555555555501</v>
       </c>
       <c r="D97">
-        <v>6.9796883442397303E-2</v>
+        <v>0.118922921170387</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,13 +2368,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>0.51074074074074005</v>
+        <v>0.49</v>
       </c>
       <c r="D98">
-        <v>3.7795928827581898E-2</v>
+        <v>6.3143531926418694E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,13 +2382,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.41962962962962902</v>
+        <v>0.34037037037036999</v>
       </c>
       <c r="D99">
-        <v>7.2903717251084396E-2</v>
+        <v>8.5035294858911994E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,13 +2396,13 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>0.414444444444444</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D100">
-        <v>6.2738160776024496E-2</v>
+        <v>7.9616708684692894E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>0.44666666666666599</v>
+        <v>0.31666666666666599</v>
       </c>
       <c r="D101">
-        <v>7.3174163212609195E-2</v>
+        <v>9.3146491407105805E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,13 +2424,13 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>0.41851851851851801</v>
+        <v>0.42148148148148101</v>
       </c>
       <c r="D102">
-        <v>7.0145840628479103E-2</v>
+        <v>6.1681957841677099E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,13 +2438,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>0.45851851851851799</v>
+        <v>0.34629629629629599</v>
       </c>
       <c r="D103">
-        <v>8.6222349497169601E-2</v>
+        <v>7.0613614684954099E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,13 +2452,13 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>0.425185185185185</v>
+        <v>0.36370370370370297</v>
       </c>
       <c r="D104">
-        <v>8.2606708642562393E-2</v>
+        <v>3.5996494266126798E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,13 +2466,13 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>0.39703703703703702</v>
+        <v>0.35555555555555501</v>
       </c>
       <c r="D105">
-        <v>6.7805094677299296E-2</v>
+        <v>4.98695142339627E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,13 +2480,13 @@
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>0.50518518518518496</v>
+        <v>0.36037037037037001</v>
       </c>
       <c r="D106">
-        <v>7.8124447871848704E-2</v>
+        <v>7.0900536989536703E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2494,13 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>0.47703703703703698</v>
+        <v>0.39296296296296201</v>
       </c>
       <c r="D107">
-        <v>8.9431982875493199E-2</v>
+        <v>6.7183184257026504E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2508,13 +2508,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>0.40037037037036999</v>
+        <v>0.359259259259259</v>
       </c>
       <c r="D108">
-        <v>3.3953086329972799E-2</v>
+        <v>4.4644610978678903E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>0.36629629629629601</v>
+        <v>0.33222222222222197</v>
       </c>
       <c r="D109">
-        <v>8.5814103483360701E-2</v>
+        <v>1.02506314837763E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>0.44518518518518502</v>
+        <v>0.32703703703703701</v>
       </c>
       <c r="D110">
-        <v>0.12998153292912901</v>
+        <v>8.236557406766E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,13 +2550,13 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>0.46481481481481401</v>
+        <v>0.35555555555555501</v>
       </c>
       <c r="D111">
-        <v>6.3050048707160397E-2</v>
+        <v>8.5265662468306195E-3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,13 +2564,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.48444444444444401</v>
+        <v>0.31814814814814801</v>
       </c>
       <c r="D112">
-        <v>3.2575753225623699E-2</v>
+        <v>2.6068391636693E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2578,13 +2578,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>0.399629629629629</v>
+        <v>0.329629629629629</v>
       </c>
       <c r="D113">
-        <v>5.6853963044405202E-2</v>
+        <v>3.2309375537132402E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,13 +2592,13 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>0.33740740740740699</v>
+        <v>0.38925925925925903</v>
       </c>
       <c r="D114">
-        <v>5.99199282811037E-2</v>
+        <v>8.4485045470149706E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,13 +2606,13 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.53111111111111098</v>
+        <v>0.41111111111111098</v>
       </c>
       <c r="D115">
-        <v>7.0656339023261697E-2</v>
+        <v>8.5040134154466096E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,13 +2620,13 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116">
-        <v>0.45888888888888801</v>
+        <v>0.42407407407407399</v>
       </c>
       <c r="D116">
-        <v>9.8168411604940595E-2</v>
+        <v>0.11275329661917199</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,13 +2634,13 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>0.46888888888888802</v>
+        <v>0.34481481481481402</v>
       </c>
       <c r="D117">
-        <v>8.6363826700848897E-2</v>
+        <v>5.3484867031448599E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,13 +2648,13 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.31555555555555498</v>
+        <v>0.36444444444444402</v>
       </c>
       <c r="D118">
-        <v>7.5455634727111795E-2</v>
+        <v>0.103818719288107</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,13 +2662,13 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>0.42592592592592499</v>
+        <v>0.21592592592592499</v>
       </c>
       <c r="D119">
-        <v>0.14939750972559199</v>
+        <v>3.7835830486287803E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,13 +2676,13 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.43814814814814801</v>
+        <v>0.41851851851851801</v>
       </c>
       <c r="D120">
-        <v>7.0044077833219906E-2</v>
+        <v>6.4053732587853199E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,13 +2690,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.40592592592592502</v>
+        <v>0.36185185185185098</v>
       </c>
       <c r="D121">
-        <v>0.11206626493564199</v>
+        <v>8.2448803585134095E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,13 +2704,13 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>0.36962962962962898</v>
+        <v>0.37185185185185099</v>
       </c>
       <c r="D122">
-        <v>7.0609729372305099E-2</v>
+        <v>7.72415376855803E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2718,13 +2718,13 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>0.302222222222222</v>
+        <v>0.38370370370370299</v>
       </c>
       <c r="D123">
-        <v>4.91547205965744E-2</v>
+        <v>9.9858610607612794E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2732,13 +2732,13 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>0.44111111111111101</v>
+        <v>0.42185185185185098</v>
       </c>
       <c r="D124">
-        <v>0.115157195598958</v>
+        <v>5.7656568016063399E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125">
-        <v>0.53555555555555501</v>
+        <v>0.49481481481481399</v>
       </c>
       <c r="D125">
-        <v>5.8705748299480102E-2</v>
+        <v>0.101480129755798</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,13 +2760,13 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>0.36</v>
+        <v>0.32518518518518502</v>
       </c>
       <c r="D126">
-        <v>6.9077797536421598E-2</v>
+        <v>3.6862551954870301E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,13 +2774,13 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127">
-        <v>0.35</v>
+        <v>0.287407407407407</v>
       </c>
       <c r="D127">
-        <v>7.6694394699524604E-2</v>
+        <v>2.2296173249322E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,13 +2788,13 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>0.49629629629629601</v>
+        <v>0.25222222222222201</v>
       </c>
       <c r="D128">
-        <v>6.4915266074686298E-2</v>
+        <v>4.7739002353201797E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,13 +2802,13 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129">
-        <v>0.43925925925925902</v>
+        <v>0.35518518518518499</v>
       </c>
       <c r="D129">
-        <v>0.106711667462209</v>
+        <v>5.3459213585188202E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2816,13 +2816,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>0.41703703703703698</v>
+        <v>0.34481481481481402</v>
       </c>
       <c r="D130">
-        <v>0.103487870637087</v>
+        <v>2.2692553603022698E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2830,13 +2830,13 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>0.31703703703703701</v>
+        <v>0.38629629629629603</v>
       </c>
       <c r="D131">
-        <v>5.4589124971533898E-2</v>
+        <v>8.9347581935971906E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2844,13 +2844,13 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132">
-        <v>0.40814814814814798</v>
+        <v>0.38</v>
       </c>
       <c r="D132">
-        <v>3.5632632506090903E-2</v>
+        <v>5.8389449786454398E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2858,13 +2858,13 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>0.46111111111111103</v>
+        <v>0.42629629629629601</v>
       </c>
       <c r="D133">
-        <v>8.5938696369026193E-2</v>
+        <v>4.9321876102568198E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2872,13 +2872,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134">
-        <v>0.47</v>
+        <v>0.40370370370370301</v>
       </c>
       <c r="D134">
-        <v>0.119500561035467</v>
+        <v>9.4375428668436595E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2886,13 +2886,13 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>0.40703703703703698</v>
+        <v>0.33037037037036998</v>
       </c>
       <c r="D135">
-        <v>6.1401107660594097E-2</v>
+        <v>1.3178108796042301E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2900,699 +2900,699 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>0.37814814814814801</v>
+        <v>0.36962962962962898</v>
       </c>
       <c r="D136">
-        <v>7.4603662424762504E-2</v>
+        <v>4.8412380373084297E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137">
-        <v>0.367037037037037</v>
-      </c>
-      <c r="D137">
-        <v>0.11828912986479299</v>
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138">
-        <v>0.38259259259259198</v>
-      </c>
-      <c r="D138">
-        <v>8.4494786813319095E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139">
-        <v>0.344444444444444</v>
-      </c>
-      <c r="D139">
-        <v>8.5128805819457504E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140">
-        <v>0.31851851851851798</v>
-      </c>
-      <c r="D140">
-        <v>5.54567021755401E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.34222222222222198</v>
+        <v>0.96518518518518504</v>
       </c>
       <c r="D141">
-        <v>0.108179853292728</v>
+        <v>1.17355403835221E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.45629629629629598</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D142">
-        <v>6.1414510601997402E-2</v>
+        <v>4.5360921162651297E-3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>0.47111111111111098</v>
+        <v>0.98259259259259202</v>
       </c>
       <c r="D143">
-        <v>0.12633159059353599</v>
+        <v>6.6872111426917501E-3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.28074074074074001</v>
+        <v>0.96148148148148105</v>
       </c>
       <c r="D144">
-        <v>5.1247804329158E-2</v>
+        <v>1.0631629699560901E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145">
-        <v>0.32555555555555499</v>
+        <v>0.98444444444444401</v>
       </c>
       <c r="D145">
-        <v>2.6094688820456999E-2</v>
+        <v>8.8113905580520999E-3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146">
-        <v>0.353333333333333</v>
+        <v>0.99481481481481404</v>
       </c>
       <c r="D146">
-        <v>9.0943839225118006E-2</v>
+        <v>3.7770514915501999E-3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>0.36666666666666597</v>
+        <v>0.99518518518518495</v>
       </c>
       <c r="D147">
-        <v>5.79484658240235E-2</v>
+        <v>4.3192236258113303E-3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>0.36740740740740702</v>
+        <v>0.98259259259259202</v>
       </c>
       <c r="D148">
-        <v>6.1959321138909403E-2</v>
+        <v>8.81139055805206E-3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149">
-        <v>0.35518518518518499</v>
+        <v>0.96333333333333304</v>
       </c>
       <c r="D149">
-        <v>2.83617625467802E-2</v>
+        <v>2.0701020166640102E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>0.347407407407407</v>
+        <v>0.96222222222222198</v>
       </c>
       <c r="D150">
-        <v>7.4633075924471104E-2</v>
+        <v>1.18054647781549E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151">
-        <v>0.32444444444444398</v>
+        <v>0.994074074074074</v>
       </c>
       <c r="D151">
-        <v>1.7816316253045399E-2</v>
+        <v>4.2873470010334003E-3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>0.393703703703703</v>
+        <v>0.98185185185185098</v>
       </c>
       <c r="D152">
-        <v>6.60111808295612E-2</v>
+        <v>7.3516419412145298E-3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153">
-        <v>0.3</v>
+        <v>0.96074074074074001</v>
       </c>
       <c r="D153">
-        <v>5.8525550444824298E-2</v>
+        <v>1.01023568125821E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154">
-        <v>0.33444444444444399</v>
+        <v>0.98407407407407399</v>
       </c>
       <c r="D154">
-        <v>7.2280128732606697E-2</v>
+        <v>7.4627561776332797E-3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>0.298148148148148</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D155">
-        <v>8.7551670027214104E-2</v>
+        <v>2.4567591039669598E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>0.39518518518518497</v>
+        <v>0.99481481481481404</v>
       </c>
       <c r="D156">
-        <v>8.7179552352730602E-2</v>
+        <v>4.5961754244410501E-3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.299259259259259</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D157">
-        <v>5.0083606368612699E-2</v>
+        <v>9.1923508488821193E-3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158">
-        <v>0.31814814814814801</v>
+        <v>0.95740740740740704</v>
       </c>
       <c r="D158">
-        <v>4.14318486138507E-2</v>
+        <v>2.5526016207574401E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159">
-        <v>0.371111111111111</v>
+        <v>0.96333333333333304</v>
       </c>
       <c r="D159">
-        <v>6.1637463889524999E-2</v>
+        <v>1.43634958738261E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>0.41074074074074002</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D160">
-        <v>8.0425821458046901E-2</v>
+        <v>4.0572041296678798E-3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>0.43629629629629602</v>
+        <v>0.98333333333333295</v>
       </c>
       <c r="D161">
-        <v>5.4086756503611201E-2</v>
+        <v>5.8560697410525398E-3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>0.32999999999999902</v>
+        <v>0.96222222222222198</v>
       </c>
       <c r="D162">
-        <v>1.5861194892862099E-2</v>
+        <v>1.1978490095404601E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.30555555555555503</v>
+        <v>0.98407407407407399</v>
       </c>
       <c r="D163">
-        <v>3.00205690802362E-2</v>
+        <v>8.2485397967852203E-3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>0.28481481481481402</v>
+        <v>0.99629629629629601</v>
       </c>
       <c r="D164">
-        <v>6.2034549424972801E-2</v>
+        <v>3.3126932999996898E-3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.422222222222222</v>
+        <v>0.99518518518518495</v>
       </c>
       <c r="D165">
-        <v>4.2793407438116E-2</v>
+        <v>4.4752022124424197E-3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.31370370370370299</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D166">
-        <v>9.1923508488821002E-3</v>
+        <v>8.0294382921032598E-3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>0.31185185185185099</v>
+        <v>0.96074074074074001</v>
       </c>
       <c r="D167">
-        <v>6.1626335382042798E-2</v>
+        <v>2.3784584234077401E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.35185185185185103</v>
+        <v>0.96185185185185096</v>
       </c>
       <c r="D168">
-        <v>3.3904570344728303E-2</v>
+        <v>1.41808812733901E-2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>0.40111111111111097</v>
+        <v>0.994074074074074</v>
       </c>
       <c r="D169">
-        <v>9.9660603749141194E-2</v>
+        <v>4.5961754244410501E-3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170">
-        <v>0.38333333333333303</v>
+        <v>0.98074074074074002</v>
       </c>
       <c r="D170">
-        <v>6.1161595308990603E-2</v>
+        <v>5.3158148497804902E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171">
-        <v>0.37074074074073998</v>
+        <v>0.95888888888888801</v>
       </c>
       <c r="D171">
-        <v>4.1498012579049698E-2</v>
+        <v>1.32196802204257E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <v>0.31333333333333302</v>
+        <v>0.98370370370370297</v>
       </c>
       <c r="D172">
-        <v>6.0873837916309903E-2</v>
+        <v>7.6263926970273803E-3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173">
-        <v>0.31111111111111101</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D173">
-        <v>6.3720927904019398E-2</v>
+        <v>2.9629629629629602E-3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174">
-        <v>0.377037037037036</v>
+        <v>0.99555555555555497</v>
       </c>
       <c r="D174">
-        <v>6.00022861932984E-2</v>
+        <v>4.4752022124424301E-3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175">
-        <v>0.35407407407407399</v>
+        <v>0.98111111111111104</v>
       </c>
       <c r="D175">
-        <v>1.8754057631366099E-2</v>
+        <v>9.1774160691584106E-3</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176">
-        <v>0.43777777777777699</v>
+        <v>0.96222222222222198</v>
       </c>
       <c r="D176">
-        <v>6.3143531926418694E-2</v>
+        <v>2.20549258236435E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177">
-        <v>0.29703703703703699</v>
+        <v>0.96481481481481401</v>
       </c>
       <c r="D177">
-        <v>6.0774606638556897E-2</v>
+        <v>1.2115131284293401E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178">
-        <v>0.41555555555555501</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D178">
-        <v>6.2860483049512902E-2</v>
+        <v>5.3158148497804902E-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179">
-        <v>0.32037037037036997</v>
+        <v>0.98296296296296204</v>
       </c>
       <c r="D179">
-        <v>0.101138918981688</v>
+        <v>7.2577473860241997E-3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180">
-        <v>0.342592592592592</v>
+        <v>0.96</v>
       </c>
       <c r="D180">
-        <v>3.1163976248833498E-2</v>
+        <v>1.1747223353447101E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181">
-        <v>0.37666666666666598</v>
+        <v>0.98407407407407399</v>
       </c>
       <c r="D181">
-        <v>3.96936139750187E-2</v>
+        <v>8.0805274923227508E-3</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>0.99592592592592499</v>
+      </c>
+      <c r="D182">
+        <v>2.4567591039669598E-3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>0.99629629629629601</v>
+      </c>
+      <c r="D183">
+        <v>3.8844772154449799E-3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.98296296296296204</v>
+      </c>
+      <c r="D184">
+        <v>7.7158024651850501E-3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>0.96222222222222198</v>
+      </c>
+      <c r="D185">
+        <v>2.2178970254192399E-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3600,13 +3600,13 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186">
-        <v>0.96629629629629599</v>
+        <v>0.96555555555555495</v>
       </c>
       <c r="D186">
-        <v>9.8270364158678496E-3</v>
+        <v>1.13311544746506E-2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3614,13 +3614,13 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>0.99296296296296205</v>
+        <v>0.99333333333333296</v>
       </c>
       <c r="D187">
-        <v>4.8855207252862598E-3</v>
+        <v>3.4346735168502502E-3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3628,13 +3628,13 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188">
-        <v>0.98111111111111104</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D188">
-        <v>8.39687707315156E-3</v>
+        <v>8.6066296582386695E-3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -3642,13 +3642,13 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189">
         <v>0.96185185185185096</v>
       </c>
       <c r="D189">
-        <v>1.1148086624661E-2</v>
+        <v>1.15707402606024E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3656,13 +3656,13 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.98259259259259202</v>
+        <v>0.98703703703703705</v>
       </c>
       <c r="D190">
-        <v>9.4135296497324696E-3</v>
+        <v>6.41500299099585E-3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,13 +3670,13 @@
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>0.99777777777777699</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D191">
-        <v>1.3857990321384699E-3</v>
+        <v>2.72165526975908E-3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -3684,13 +3684,13 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192">
-        <v>0.99481481481481404</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D192">
-        <v>5.1586623248830099E-3</v>
+        <v>5.5431961285539897E-3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3698,13 +3698,13 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>0.98259259259259202</v>
+        <v>0.98370370370370297</v>
       </c>
       <c r="D193">
-        <v>7.5541029831004301E-3</v>
+        <v>4.2873470010334298E-3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -3712,13 +3712,13 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>0.96111111111111103</v>
+        <v>0.96037037037036999</v>
       </c>
       <c r="D194">
-        <v>2.07869854820774E-2</v>
+        <v>2.1551609668112801E-2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,13 +3726,13 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>0.96703703703703603</v>
+        <v>0.96555555555555495</v>
       </c>
       <c r="D195">
-        <v>1.09494411104403E-2</v>
+        <v>1.13311544746506E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -3740,13 +3740,13 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196">
-        <v>0.99444444444444402</v>
+        <v>0.99333333333333296</v>
       </c>
       <c r="D196">
-        <v>3.5136418446314998E-3</v>
+        <v>3.4346735168502502E-3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3754,13 +3754,13 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>0.98185185185185198</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D197">
-        <v>7.97802193649556E-3</v>
+        <v>8.6066296582386695E-3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3768,13 +3768,13 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198">
-        <v>0.96333333333333304</v>
+        <v>0.96185185185185096</v>
       </c>
       <c r="D198">
-        <v>1.13190420666193E-2</v>
+        <v>1.15707402606024E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3782,13 +3782,13 @@
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199">
-        <v>0.98407407407407399</v>
+        <v>0.98703703703703705</v>
       </c>
       <c r="D199">
-        <v>8.7332045352234104E-3</v>
+        <v>6.41500299099585E-3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3796,13 +3796,13 @@
         <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200">
-        <v>0.99814814814814801</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D200">
-        <v>1.1712139482104901E-3</v>
+        <v>2.72165526975908E-3</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3810,13 +3810,13 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>0.99555555555555497</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D201">
-        <v>4.4752022124424301E-3</v>
+        <v>5.5431961285539897E-3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3824,13 +3824,13 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>0.98148148148148096</v>
+        <v>0.98370370370370297</v>
       </c>
       <c r="D202">
-        <v>7.7689544308899901E-3</v>
+        <v>4.2873470010334298E-3</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3838,13 +3838,13 @@
         <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>0.95777777777777695</v>
+        <v>0.96037037037036999</v>
       </c>
       <c r="D203">
-        <v>2.1192177038399901E-2</v>
+        <v>2.1551609668112801E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3852,13 +3852,13 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>0.96629629629629599</v>
+        <v>0.96555555555555495</v>
       </c>
       <c r="D204">
-        <v>1.5108205966200799E-2</v>
+        <v>1.13311544746506E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3866,13 +3866,13 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>0.994074074074074</v>
+        <v>0.99333333333333296</v>
       </c>
       <c r="D205">
-        <v>4.1242698983925902E-3</v>
+        <v>3.4346735168502502E-3</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3880,13 +3880,13 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206">
         <v>0.98148148148148096</v>
       </c>
       <c r="D206">
-        <v>8.6859551107841097E-3</v>
+        <v>8.6066296582386695E-3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3894,13 +3894,13 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>0.96074074074074001</v>
+        <v>0.96185185185185096</v>
       </c>
       <c r="D207">
-        <v>1.42195213484833E-2</v>
+        <v>1.15707402606024E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,13 +3908,13 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>0.98333333333333295</v>
+        <v>0.98703703703703705</v>
       </c>
       <c r="D208">
-        <v>7.6801634641954601E-3</v>
+        <v>6.41500299099585E-3</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3922,13 +3922,13 @@
         <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209">
-        <v>0.99777777777777699</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D209">
-        <v>1.3857990321384699E-3</v>
+        <v>2.72165526975908E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3936,13 +3936,13 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210">
-        <v>0.99481481481481404</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D210">
-        <v>4.5961754244410501E-3</v>
+        <v>5.5431961285539897E-3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3950,13 +3950,13 @@
         <v>16</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211">
-        <v>0.982222222222222</v>
+        <v>0.98370370370370297</v>
       </c>
       <c r="D211">
-        <v>7.2766232238475996E-3</v>
+        <v>4.2873470010334298E-3</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3964,13 +3964,13 @@
         <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212">
-        <v>0.95703703703703602</v>
+        <v>0.96037037037036999</v>
       </c>
       <c r="D212">
-        <v>2.2141829892792699E-2</v>
+        <v>2.1551609668112801E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3978,13 +3978,13 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213">
-        <v>0.96777777777777696</v>
+        <v>0.96555555555555495</v>
       </c>
       <c r="D213">
-        <v>7.9089468533565296E-3</v>
+        <v>1.13311544746506E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3992,13 +3992,13 @@
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.99444444444444402</v>
+        <v>0.99333333333333296</v>
       </c>
       <c r="D214">
-        <v>3.5136418446314998E-3</v>
+        <v>3.4346735168502502E-3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -4006,13 +4006,13 @@
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>0.982222222222222</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D215">
-        <v>8.49432958605904E-3</v>
+        <v>8.6066296582386695E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -4020,13 +4020,13 @@
         <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216">
-        <v>0.95925925925925903</v>
+        <v>0.96185185185185096</v>
       </c>
       <c r="D216">
-        <v>1.2450175047386301E-2</v>
+        <v>1.15707402606024E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -4034,13 +4034,13 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>0.98444444444444401</v>
+        <v>0.98703703703703705</v>
       </c>
       <c r="D217">
-        <v>7.9951974610825496E-3</v>
+        <v>6.41500299099585E-3</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -4048,13 +4048,13 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218">
-        <v>0.99740740740740697</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D218">
-        <v>1.48148148148145E-3</v>
+        <v>2.72165526975908E-3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -4062,13 +4062,13 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219">
-        <v>0.99518518518518495</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D219">
-        <v>5.1851851851851902E-3</v>
+        <v>5.5431961285539897E-3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,13 +4076,13 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220">
-        <v>0.98185185185185098</v>
+        <v>0.98370370370370297</v>
       </c>
       <c r="D220">
-        <v>7.1626220762273001E-3</v>
+        <v>4.2873470010334298E-3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -4090,13 +4090,13 @@
         <v>17</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221">
-        <v>0.956666666666666</v>
+        <v>0.96037037037036999</v>
       </c>
       <c r="D221">
-        <v>2.20549258236435E-2</v>
+        <v>2.1551609668112801E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -4104,13 +4104,13 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>0.96703703703703603</v>
+        <v>0.96555555555555495</v>
       </c>
       <c r="D222">
-        <v>1.09494411104403E-2</v>
+        <v>1.13311544746506E-2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -4118,13 +4118,13 @@
         <v>10</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223">
-        <v>0.99481481481481404</v>
+        <v>0.99333333333333296</v>
       </c>
       <c r="D223">
-        <v>4.1242698983925902E-3</v>
+        <v>3.4346735168502502E-3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -4132,13 +4132,13 @@
         <v>11</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224">
-        <v>0.98259259259259202</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D224">
-        <v>8.2485397967852203E-3</v>
+        <v>8.6066296582386695E-3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -4146,13 +4146,13 @@
         <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225">
-        <v>0.96148148148148105</v>
+        <v>0.96185185185185096</v>
       </c>
       <c r="D225">
-        <v>8.7958089533614198E-3</v>
+        <v>1.15707402606024E-2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -4160,13 +4160,13 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226">
-        <v>0.98407407407407399</v>
+        <v>0.98703703703703705</v>
       </c>
       <c r="D226">
-        <v>7.99519746108256E-3</v>
+        <v>6.41500299099585E-3</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,13 +4174,13 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227">
-        <v>0.99740740740740697</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D227">
-        <v>1.48148148148145E-3</v>
+        <v>2.72165526975908E-3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -4188,13 +4188,13 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228">
-        <v>0.99555555555555497</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D228">
-        <v>4.4752022124424301E-3</v>
+        <v>5.5431961285539897E-3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -4202,13 +4202,13 @@
         <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229">
-        <v>0.98259259259259202</v>
+        <v>0.98370370370370297</v>
       </c>
       <c r="D229">
-        <v>5.0511784062910597E-3</v>
+        <v>4.2873470010334298E-3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -4216,13 +4216,13 @@
         <v>17</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230">
-        <v>0.96185185185185096</v>
+        <v>0.96037037037036999</v>
       </c>
       <c r="D230">
-        <v>2.0674497388078299E-2</v>
+        <v>2.1551609668112801E-2</v>
       </c>
     </row>
   </sheetData>
